--- a/BDII_ControloProgressoProjecto.xlsx
+++ b/BDII_ControloProgressoProjecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Fernandes\Desktop\GitHub\BD2-Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FC8DDC-46F4-4CFC-B8BD-A2F6C5D074AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6852B9-473A-4CDD-8135-80C13AE02360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1142,8 +1142,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1353,9 +1353,7 @@
       <c r="C12" s="16">
         <v>45588</v>
       </c>
-      <c r="D12" s="17">
-        <v>45621</v>
-      </c>
+      <c r="D12" s="17"/>
       <c r="E12" s="14" t="s">
         <v>90</v>
       </c>
@@ -1376,9 +1374,7 @@
       <c r="C13" s="22">
         <v>45588</v>
       </c>
-      <c r="D13" s="23">
-        <v>45621</v>
-      </c>
+      <c r="D13" s="23"/>
       <c r="E13" s="20" t="s">
         <v>87</v>
       </c>
@@ -1468,9 +1464,7 @@
       <c r="C17" s="22">
         <v>45588</v>
       </c>
-      <c r="D17" s="23">
-        <v>45621</v>
-      </c>
+      <c r="D17" s="23"/>
       <c r="E17" s="20" t="s">
         <v>89</v>
       </c>
@@ -1491,9 +1485,7 @@
       <c r="C18" s="22">
         <v>45588</v>
       </c>
-      <c r="D18" s="23">
-        <v>45621</v>
-      </c>
+      <c r="D18" s="23"/>
       <c r="E18" s="20" t="s">
         <v>87</v>
       </c>
@@ -1514,9 +1506,7 @@
       <c r="C19" s="32">
         <v>45588</v>
       </c>
-      <c r="D19" s="32">
-        <v>45621</v>
-      </c>
+      <c r="D19" s="32"/>
       <c r="E19" s="30"/>
       <c r="F19" s="34">
         <v>0</v>

--- a/BDII_ControloProgressoProjecto.xlsx
+++ b/BDII_ControloProgressoProjecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Fernandes\Desktop\GitHub\BD2-Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6852B9-473A-4CDD-8135-80C13AE02360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D8BDBD-3762-4FEF-8369-949B1B9940A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/BDII_ControloProgressoProjecto.xlsx
+++ b/BDII_ControloProgressoProjecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Fernandes\Desktop\GitHub\BD2-Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D8BDBD-3762-4FEF-8369-949B1B9940A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4BC25D-0C5C-496A-8E23-C0F9F0985687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="25">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">

--- a/BDII_ControloProgressoProjecto.xlsx
+++ b/BDII_ControloProgressoProjecto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Fernandes\Desktop\GitHub\BD2-Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4BC25D-0C5C-496A-8E23-C0F9F0985687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D743BC7E-3C60-41FC-8E95-AEFCCB0EBEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>Data Relatório:</t>
   </si>
   <si>
-    <t>Grupo nº</t>
-  </si>
-  <si>
     <t>Pacotes de trabalho (PT) / Tarefas (T) / Marcos Projecto (MP)</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t>Francisco Costa</t>
+  </si>
+  <si>
+    <t>Grupo nº1</t>
   </si>
 </sst>
 </file>
@@ -1142,8 +1142,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1173,33 +1173,33 @@
     </row>
     <row r="4" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="11">
         <v>45553</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="C6" s="16">
         <v>45553</v>
@@ -1225,7 +1225,7 @@
         <v>45553</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="18">
         <v>0</v>
@@ -1236,10 +1236,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>14</v>
       </c>
       <c r="C7" s="22">
         <v>45553</v>
@@ -1248,7 +1248,7 @@
         <v>45558</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="18">
         <v>0</v>
@@ -1259,10 +1259,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="22">
         <v>45553</v>
@@ -1271,7 +1271,7 @@
         <v>45558</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="24">
         <v>0</v>
@@ -1282,10 +1282,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>18</v>
       </c>
       <c r="C9" s="27">
         <v>45553</v>
@@ -1294,7 +1294,7 @@
         <v>45558</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="24">
         <v>0</v>
@@ -1305,10 +1305,10 @@
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>20</v>
       </c>
       <c r="C10" s="32">
         <v>45553</v>
@@ -1317,7 +1317,7 @@
         <v>45558</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="34">
         <v>0</v>
@@ -1328,10 +1328,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="C11" s="11">
         <v>45588</v>
@@ -1345,17 +1345,17 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="C12" s="16">
         <v>45588</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="18">
         <v>0</v>
@@ -1366,17 +1366,17 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>26</v>
       </c>
       <c r="C13" s="22">
         <v>45588</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" s="24">
         <v>0</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>28</v>
       </c>
       <c r="C14" s="22">
         <v>45588</v>
@@ -1399,7 +1399,7 @@
         <v>45588</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="24">
         <v>0</v>
@@ -1410,10 +1410,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="36" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>30</v>
       </c>
       <c r="C15" s="22">
         <v>45588</v>
@@ -1422,7 +1422,7 @@
         <v>45588</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="18">
         <v>0</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>32</v>
       </c>
       <c r="C16" s="22">
         <v>45588</v>
@@ -1445,7 +1445,7 @@
         <v>45588</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" s="18">
         <v>0</v>
@@ -1456,17 +1456,17 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>34</v>
       </c>
       <c r="C17" s="22">
         <v>45588</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" s="24">
         <v>0</v>
@@ -1477,17 +1477,17 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>36</v>
       </c>
       <c r="C18" s="22">
         <v>45588</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="24">
         <v>0</v>
@@ -1498,10 +1498,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="32">
         <v>45588</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="C20" s="11">
         <v>45624</v>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>41</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="23"/>
@@ -1551,10 +1551,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>43</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="23"/>
@@ -1568,10 +1568,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>45</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="23"/>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>47</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="23"/>
@@ -1602,10 +1602,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>49</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="23"/>
@@ -1619,10 +1619,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>51</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="23"/>
@@ -1636,10 +1636,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="26" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>53</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="28"/>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>55</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
@@ -1670,10 +1670,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>57</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="31" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>59</v>
       </c>
       <c r="C30" s="32">
         <v>45624</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="C31" s="11">
         <v>45649</v>
@@ -1725,10 +1725,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="17"/>
@@ -1742,10 +1742,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>65</v>
       </c>
       <c r="C33" s="37"/>
       <c r="D33" s="38"/>
@@ -1759,10 +1759,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="40" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>67</v>
       </c>
       <c r="C34" s="41"/>
       <c r="D34" s="41"/>
@@ -1776,16 +1776,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="44" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>69</v>
       </c>
       <c r="C35" s="45">
         <v>45304</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35" s="43"/>
       <c r="F35" s="44"/>
@@ -1793,10 +1793,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="48" t="s">
         <v>71</v>
-      </c>
-      <c r="B36" s="48" t="s">
-        <v>72</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="50"/>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="55" t="s">
         <v>73</v>
-      </c>
-      <c r="B37" s="55" t="s">
-        <v>74</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="23"/>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="55" t="s">
         <v>75</v>
-      </c>
-      <c r="B38" s="55" t="s">
-        <v>76</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="23"/>
@@ -1844,10 +1844,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="56" t="s">
         <v>77</v>
-      </c>
-      <c r="B39" s="56" t="s">
-        <v>78</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="23"/>
@@ -1861,10 +1861,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="56" t="s">
         <v>79</v>
-      </c>
-      <c r="B40" s="56" t="s">
-        <v>80</v>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="23"/>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="56" t="s">
         <v>81</v>
-      </c>
-      <c r="B41" s="56" t="s">
-        <v>82</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="23"/>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="56" t="s">
         <v>83</v>
-      </c>
-      <c r="B42" s="56" t="s">
-        <v>84</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="23"/>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="58" t="s">
         <v>85</v>
-      </c>
-      <c r="B43" s="58" t="s">
-        <v>86</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="60"/>
